--- a/resources/static/file/template.xlsx
+++ b/resources/static/file/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS\Codes\Go\Animal_database\static\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS\Codes\Go\Animal_database\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049C7FE5-9CAF-4F15-A485-61A2D78B644B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12A477D-8843-4091-BF41-3CF2C692D94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28755" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="4935" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,18 +221,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>海拔</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -254,6 +242,10 @@
   </si>
   <si>
     <t>调查乡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海拔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000000000000000_);[Red]\(0.000000000000000\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,12 +304,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -369,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,16 +363,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -404,7 +387,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,7 +673,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" activeCellId="1" sqref="R25 N4"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,572 +728,572 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="11"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="11"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="10"/>
     </row>
     <row r="4" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="11"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="11"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="10"/>
     </row>
     <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="11"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="11"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="10"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="11"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="10"/>
     </row>
     <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="11"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="10"/>
     </row>
     <row r="10" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="11"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="10"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="11"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="10"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="11"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="10"/>
     </row>
     <row r="13" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="11"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="10"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="11"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="11"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="10"/>
     </row>
     <row r="16" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="11"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="10"/>
     </row>
     <row r="17" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="11"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="10"/>
     </row>
     <row r="18" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="11"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="10"/>
     </row>
     <row r="19" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="11"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="10"/>
     </row>
     <row r="20" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="11"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="10"/>
     </row>
     <row r="21" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="11"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
